--- a/biology/Biologie cellulaire et moléculaire/Hématimètre/Hématimètre.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hématimètre/Hématimètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9matim%C3%A8tre</t>
+          <t>Hématimètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un hématimètre est une lame de verre spécifique permettant le comptage cellulaire au microscope. Elle se présente sous la forme d'une lame quadrillée possédant des chambres de numérations. Le volume des chambres de numérations doivent être connus pour pouvoir réaliser le comptage. 
-L'estimation du nombre de cellules par volume chez le mélange initial peut se faire grâce à l'équation suivante[1] :
+L'estimation du nombre de cellules par volume chez le mélange initial peut se faire grâce à l'équation suivante :
               Cellules solution initiale
               Volume
         =
